--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1949670.128818413</v>
+        <v>1947418.049107206</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915360965</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>106.4735778903236</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>244.9774942274441</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067175</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>87.98953895337199</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>95.44336989065499</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>282.7954445156104</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.9824281355622</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>72.81729813874392</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377045</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>29.24923305751936</v>
+        <v>146.4339626465679</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890353</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137047</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>43.73846614325981</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.570723454108</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.9385224935183</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>126.9263824507421</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20.88994825141443</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673009</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2740711281116</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4325,10 +4325,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4346,19 +4346,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720648</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>310.0549803959803</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>310.0549803959803</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W4" t="n">
-        <v>310.0549803959803</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.124011696101</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>994.1614947556898</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>994.1614947556898</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>608.3732421574455</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>197.3873373678379</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760223</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4656,40 +4656,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>162.9195607661784</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.273285499503</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1964.273285499503</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1606.007586892752</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1220.219334294508</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>809.2334295049004</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>394.1609793498969</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539436</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2350.873125563624</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181849</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="C10" t="n">
-        <v>920.8870058181849</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="D10" t="n">
-        <v>770.7703664058491</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="E10" t="n">
-        <v>622.857272823456</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="F10" t="n">
-        <v>475.9673253255456</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="G10" t="n">
-        <v>308.2644887002646</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>286.9548903328654</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156755</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314344</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876712</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597643</v>
+        <v>615.6449305525877</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597643</v>
+        <v>465.5282911402519</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179109</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,40 +5270,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>803.2707707770301</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>634.3345878491232</v>
       </c>
       <c r="D16" t="n">
-        <v>594.8179559048583</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>446.9048623224694</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>984.9192356072698</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6136,61 +6136,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,7 +6224,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6701,49 +6701,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,16 +7017,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>385.6451336181095</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7257,22 +7257,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,16 +7333,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279801</v>
@@ -7351,10 +7351,10 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487566</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092338</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>117.1847295890498</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684188</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>101.6825818796714</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492916</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.64613085857653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>40.32043864788577</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667979</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194322</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092559</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="14">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
@@ -26335,25 +26335,25 @@
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687972</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880399</v>
+        <v>-955546.1914880398</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395529</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395528</v>
+        <v>373198.5542395529</v>
       </c>
       <c r="E6" t="n">
-        <v>123030.9881448626</v>
+        <v>122996.2502194266</v>
       </c>
       <c r="F6" t="n">
-        <v>448443.449952218</v>
+        <v>448408.7120267825</v>
       </c>
       <c r="G6" t="n">
-        <v>448443.4499522176</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="H6" t="n">
-        <v>448443.4499522177</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="I6" t="n">
-        <v>448443.4499522176</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="J6" t="n">
-        <v>230912.2475549403</v>
+        <v>230877.5096295044</v>
       </c>
       <c r="K6" t="n">
-        <v>448443.4499522176</v>
+        <v>448408.712026782</v>
       </c>
       <c r="L6" t="n">
-        <v>448443.4499522178</v>
+        <v>448408.712026782</v>
       </c>
       <c r="M6" t="n">
-        <v>363388.4220167058</v>
+        <v>363353.6840912699</v>
       </c>
       <c r="N6" t="n">
-        <v>448443.4499522177</v>
+        <v>448408.7120267821</v>
       </c>
       <c r="O6" t="n">
-        <v>448443.4499522178</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="P6" t="n">
-        <v>448443.4499522178</v>
+        <v>448408.712026782</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.276709502444</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>179.7382603152892</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>41.54550410914686</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554424</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>322.9321867000814</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>84.3886102912823</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>11.81231987171009</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>1.772586778758551</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.53512227109417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,10 +28068,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>266.3926848685829</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32336,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,10 +32944,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33977,10 +33977,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942239</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36592,10 +36592,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
